--- a/October'21/31.10.2021/Daily Sales Info.xlsx
+++ b/October'21/31.10.2021/Daily Sales Info.xlsx
@@ -2573,6 +2573,12 @@
     <xf numFmtId="9" fontId="15" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2653,12 +2659,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14972,80 +14972,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <v>767546</v>
@@ -15075,19 +15075,19 @@
         <v>39</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -15099,13 +15099,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -16136,11 +16136,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -16211,11 +16211,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>767546</v>
@@ -16252,14 +16252,14 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -16511,80 +16511,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
@@ -16623,21 +16623,21 @@
         <v>37</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="112"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>779220</v>
@@ -16651,15 +16651,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="112"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -18001,11 +18001,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>777300</v>
@@ -18084,11 +18084,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>504083</v>
@@ -18125,16 +18125,16 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -18409,80 +18409,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
@@ -18521,19 +18521,19 @@
         <v>37</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>172779</v>
@@ -18547,13 +18547,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -19766,11 +19766,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>134206</v>
@@ -19841,11 +19841,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>542656</v>
@@ -19882,14 +19882,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -20144,80 +20144,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
@@ -20256,19 +20256,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207792</v>
@@ -20286,13 +20286,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -21489,11 +21489,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>142429</v>
@@ -21564,11 +21564,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>608019</v>
@@ -21605,14 +21605,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -21867,80 +21867,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
@@ -21979,19 +21979,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207792</v>
@@ -22005,13 +22005,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -23208,11 +23208,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>219134</v>
@@ -23283,11 +23283,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>596677</v>
@@ -23324,14 +23324,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -23586,80 +23586,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
@@ -23698,19 +23698,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>415584</v>
@@ -23724,13 +23724,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -24933,11 +24933,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>209112</v>
@@ -25008,11 +25008,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>803149</v>
@@ -25049,14 +25049,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -25311,80 +25311,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
@@ -25423,19 +25423,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -25447,13 +25447,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -26484,11 +26484,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -26556,11 +26556,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>803149</v>
@@ -26597,14 +26597,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -26860,80 +26860,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
@@ -26972,19 +26972,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -26996,13 +26996,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -28177,11 +28177,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>187218</v>
@@ -28252,11 +28252,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>615931</v>
@@ -28293,14 +28293,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -28555,80 +28555,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
@@ -28667,19 +28667,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>212468</v>
@@ -28693,13 +28693,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -29903,11 +29903,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>186787</v>
@@ -29978,11 +29978,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>641612</v>
@@ -30019,14 +30019,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -30281,80 +30281,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
@@ -30393,19 +30393,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207792</v>
@@ -30421,13 +30421,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -31610,11 +31610,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>189108</v>
@@ -31685,11 +31685,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>660296</v>
@@ -31726,14 +31726,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -31996,80 +31996,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
@@ -32108,21 +32108,21 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="112"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>571428</v>
@@ -32136,15 +32136,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="112"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -33498,11 +33498,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>435547</v>
@@ -33581,11 +33581,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="114"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="77">
         <f>D4+D5-D28</f>
         <v>796177</v>
@@ -33622,16 +33622,16 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="M29" s="115"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="115"/>
-      <c r="S29" s="115"/>
-      <c r="T29" s="115"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="115"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="117"/>
+      <c r="R29" s="117"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -33907,80 +33907,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
@@ -34019,19 +34019,19 @@
         <v>39</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -34043,13 +34043,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -35230,11 +35230,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>179963</v>
@@ -35305,11 +35305,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>587583</v>
@@ -35346,14 +35346,14 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -35612,80 +35612,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
@@ -35724,21 +35724,21 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -35750,15 +35750,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -37069,11 +37069,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>265989</v>
@@ -37152,11 +37152,11 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>530188</v>
@@ -37193,16 +37193,16 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -37476,80 +37476,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
@@ -37588,19 +37588,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -37614,13 +37614,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -38810,11 +38810,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>171489</v>
@@ -38885,11 +38885,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>670387</v>
@@ -38926,14 +38926,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -39188,80 +39188,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
@@ -39300,19 +39300,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -39324,13 +39324,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -40361,11 +40361,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -40436,11 +40436,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>670387</v>
@@ -40477,14 +40477,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -40738,80 +40738,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
@@ -40850,19 +40850,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -40874,13 +40874,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -42057,11 +42057,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>192323</v>
@@ -42132,11 +42132,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>478064</v>
@@ -42173,14 +42173,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -42434,80 +42434,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
@@ -42546,19 +42546,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>212468</v>
@@ -42572,13 +42572,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -43753,11 +43753,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>194199</v>
@@ -43828,11 +43828,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>496333</v>
@@ -43869,14 +43869,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -44130,80 +44130,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
@@ -44242,19 +44242,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207792</v>
@@ -44270,13 +44270,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -45461,11 +45461,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>179488</v>
@@ -45536,11 +45536,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>524637</v>
@@ -45577,14 +45577,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -45840,80 +45840,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
@@ -45952,19 +45952,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>207793</v>
@@ -45978,13 +45978,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -47164,11 +47164,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>184634</v>
@@ -47239,11 +47239,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>547796</v>
@@ -47280,14 +47280,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -47542,80 +47542,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
@@ -47654,19 +47654,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -47678,13 +47678,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -48861,11 +48861,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>193041</v>
@@ -48936,11 +48936,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>354755</v>
@@ -48977,14 +48977,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -49238,80 +49238,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
@@ -49350,19 +49350,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -49376,13 +49376,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -50562,11 +50562,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>237221</v>
@@ -50637,11 +50637,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>429222</v>
@@ -50678,14 +50678,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -50939,80 +50939,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
@@ -51051,19 +51051,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -51075,13 +51075,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -52112,11 +52112,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -52187,11 +52187,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>429222</v>
@@ -52228,14 +52228,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -52489,80 +52489,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
@@ -52601,19 +52601,19 @@
         <v>39</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>212469</v>
@@ -52627,13 +52627,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -53822,11 +53822,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>218581</v>
@@ -53897,11 +53897,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>581471</v>
@@ -53938,14 +53938,14 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -54199,80 +54199,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
@@ -54311,19 +54311,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>334765</v>
@@ -54337,13 +54337,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -55510,11 +55510,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>229725</v>
@@ -55585,11 +55585,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>534262</v>
@@ -55626,14 +55626,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -55871,8 +55871,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55888,80 +55888,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
@@ -56000,19 +56000,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -56024,13 +56024,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -56104,7 +56104,7 @@
       <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="93">
         <v>3393</v>
       </c>
       <c r="E7" s="22"/>
@@ -56142,7 +56142,7 @@
         <v>32.233499999999999</v>
       </c>
       <c r="U7">
-        <v>1100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -56251,7 +56251,7 @@
         <v>-98.176999999999992</v>
       </c>
       <c r="U9">
-        <v>3430</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -56467,9 +56467,6 @@
         <f t="shared" si="5"/>
         <v>14.648999999999999</v>
       </c>
-      <c r="U13">
-        <v>2100</v>
-      </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
@@ -56521,9 +56518,6 @@
       <c r="T14" s="27">
         <f t="shared" si="5"/>
         <v>-54.554500000000004</v>
-      </c>
-      <c r="U14">
-        <v>2645</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -56586,7 +56580,7 @@
       <c r="C16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="119">
+      <c r="D16" s="92">
         <v>10281</v>
       </c>
       <c r="E16" s="30"/>
@@ -56627,11 +56621,8 @@
         <f t="shared" si="5"/>
         <v>-20.330500000000001</v>
       </c>
-      <c r="U16">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -56685,7 +56676,7 @@
         <v>46.302999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -56695,7 +56686,7 @@
       <c r="C18" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="119">
+      <c r="D18" s="92">
         <v>7200</v>
       </c>
       <c r="E18" s="30"/>
@@ -56735,7 +56726,7 @@
         <v>-33.600000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -56781,7 +56772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -56831,7 +56822,7 @@
         <v>-8.7020000000000017</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -56883,7 +56874,7 @@
         <v>27.889499999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -56933,7 +56924,7 @@
         <v>-28.552000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -56989,7 +56980,7 @@
         <v>13.326999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -57037,7 +57028,7 @@
         <v>180.67099999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -57091,7 +57082,7 @@
         <v>-47.790500000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -57145,7 +57136,7 @@
         <v>74.936999999999983</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -57202,16 +57193,13 @@
         <f t="shared" si="5"/>
         <v>-60.679500000000004</v>
       </c>
-      <c r="U27">
-        <v>10365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+    </row>
+    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>178272</v>
@@ -57281,12 +57269,12 @@
         <v>382.10399999999987</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>355990</v>
@@ -57323,16 +57311,16 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -57587,80 +57575,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D4</f>
@@ -57699,19 +57687,19 @@
         <v>39</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>'1'!D5+'2'!D5+'3'!D5+'4'!D5+'5'!D5+'6'!D5+'7'!D5+'8'!D5+'9'!D5+'10'!D5+'11'!D5+'12'!D5+'13'!D5+'14'!D5+'15'!D5+'16'!D5+'17'!D5+'18'!D5+'19'!D5+'20'!D5+'21'!D5+'22'!D5+'23'!D5+'24'!D5+'25'!D5+'26'!D5+'27'!D5+'28'!D5+'29'!D5+'30'!D5+'31'!D5</f>
@@ -57750,13 +57738,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -59417,11 +59405,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>5988957</v>
@@ -59492,11 +59480,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>355990</v>
@@ -59533,14 +59521,14 @@
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -59795,13 +59783,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
       <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -60310,80 +60298,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
@@ -60422,19 +60410,19 @@
         <v>37</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>311688</v>
@@ -60450,13 +60438,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -61663,11 +61651,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>187948</v>
@@ -61738,11 +61726,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>705211</v>
@@ -61779,14 +61767,14 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -62042,80 +62030,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
@@ -62157,19 +62145,19 @@
         <f>'4'!M29</f>
         <v>0</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>221818</v>
@@ -62183,13 +62171,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -63376,11 +63364,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>201224</v>
@@ -63451,11 +63439,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>725805</v>
@@ -63492,14 +63480,14 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -63755,80 +63743,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
@@ -63867,19 +63855,19 @@
         <v>37</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -63893,13 +63881,13 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -65068,11 +65056,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>197621</v>
@@ -65143,11 +65131,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>528184</v>
@@ -65184,14 +65172,14 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -65448,80 +65436,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
@@ -65560,19 +65548,19 @@
         <v>37</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>470377</v>
@@ -65586,13 +65574,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -66783,11 +66771,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>291772</v>
@@ -66858,11 +66846,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>706789</v>
@@ -66899,14 +66887,14 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -67161,80 +67149,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
@@ -67273,19 +67261,19 @@
         <v>37</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -67297,13 +67285,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -68334,11 +68322,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>0</v>
@@ -68409,11 +68397,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>706789</v>
@@ -68450,14 +68438,14 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
@@ -68711,80 +68699,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
@@ -68823,19 +68811,19 @@
         <v>37</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -68851,13 +68839,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
     </row>
     <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -70026,11 +70014,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
         <v>204626</v>
@@ -70101,11 +70089,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
         <v>502163</v>
@@ -70142,14 +70130,14 @@
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
